--- a/R/benchmark-models/pcr/pcr-results.xlsx
+++ b/R/benchmark-models/pcr/pcr-results.xlsx
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3121" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="62">
   <si>
     <t>Here we used Principal Component Regression (PCR) to perform 1-step ahead forecasts (expanding window). The first column of each sheet contains the sample that was used for estimation. The following columns contain the PCR coefficent estimates and the last two columns contain the one step ahead forecast and the true value of the forecast period, respectively.</t>
   </si>
@@ -225,6 +225,9 @@
     <t>coef_ZIMBABWE_lag</t>
   </si>
   <si>
+    <t>adjR2</t>
+  </si>
+  <si>
     <t>one.step.ahead.fcast</t>
   </si>
   <si>
@@ -479,10 +482,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0036074371941292797</v>
@@ -641,15 +647,18 @@
         <v>1.6615699961311875E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.030337553177956944</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.004064616475470784</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.003660896997179954</v>
@@ -808,15 +817,18 @@
         <v>5.689491440354668E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.021974687583624197</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.006849338699289789</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.003717534329661181</v>
@@ -975,15 +987,18 @@
         <v>0.0014342676502313812</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.0017214365982549662</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.006566251612627501</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>-0.45728485683796105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.007405692922162074</v>
@@ -1142,15 +1157,18 @@
         <v>-0.004085533740595506</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.055450966638353694</v>
+      </c>
+      <c r="BC5" t="n">
         <v>-0.1576571817964716</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.005329161297871165</v>
@@ -1309,15 +1327,18 @@
         <v>-0.0032634475707114634</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.007612150602476664</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.06178883049836439</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.04688358589885411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.005408766015354883</v>
@@ -1476,9 +1497,12 @@
         <v>-0.0030735234220160283</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.013766938567207454</v>
+      </c>
+      <c r="BC7" t="n">
         <v>-0.0037899375648791796</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
@@ -1659,10 +1683,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0027022809639890896</v>
@@ -1821,15 +1848,18 @@
         <v>-0.00948698221892328</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.3710717132731749</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.1392182010339559</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>9.995003330853791E-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0021317998686162564</v>
@@ -1988,15 +2018,18 @@
         <v>-0.011039375192525321</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.36780053063823615</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04357594306560753</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.003824633263794892</v>
@@ -2155,15 +2188,18 @@
         <v>-0.01086425513615655</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.3920721055394495</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.036846138409427416</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05543470688809826</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0030519037265788725</v>
@@ -2322,15 +2358,18 @@
         <v>-0.009718273433322603</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.38648773261751534</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.060758017048350585</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.06672363204290921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0015812786372853998</v>
@@ -2489,15 +2528,18 @@
         <v>-0.005180476947150177</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.19974180079362647</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.038631475788204445</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.017839918128331078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0012944383799371427</v>
@@ -2656,9 +2698,12 @@
         <v>-0.005310664257863209</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.1991653953240965</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.06347970428739513</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.07257069283483553</v>
       </c>
     </row>
@@ -2839,10 +2884,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-5.765283800436443E-4</v>
@@ -3001,15 +3049,18 @@
         <v>2.2986448029177692E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.3816488908467849</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.014563062382095317</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-5.958312786880159E-4</v>
@@ -3168,15 +3219,18 @@
         <v>3.3950383629855103E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.388895830781847</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.024992612554663052</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.029558802241544058</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-3.847221914282657E-4</v>
@@ -3335,15 +3389,18 @@
         <v>8.316370115110966E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.3845256866850928</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.017022132864538023</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.034401426717332484</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>1.203390350106304E-4</v>
@@ -3502,15 +3559,18 @@
         <v>0.001978789477067446</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.3570506804625442</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04979394533189547</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.02078253918252848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-1.846346623257854E-4</v>
@@ -3669,15 +3729,18 @@
         <v>0.0011463114208240988</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.3423170627219806</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.04994012274005999</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.009950330853166989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-2.8951458627881336E-4</v>
@@ -3836,9 +3899,12 @@
         <v>0.001033617677997096</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.3322185044034628</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.03257058384457073</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.021761491781513875</v>
       </c>
     </row>
@@ -4019,10 +4085,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0012356839841068492</v>
@@ -4181,15 +4250,18 @@
         <v>0.0019388273949357544</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.07925867798143116</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.06423721331736727</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.001363209679444323</v>
@@ -4348,15 +4420,18 @@
         <v>0.0028129662968677813</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.10919139381961185</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.049857327375764204</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.06952606264861316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-5.393700483890848E-4</v>
@@ -4515,15 +4590,18 @@
         <v>0.0025640294955257548</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.12760395042515826</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08055115480123282</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.08157998699242341</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.001979952214951265</v>
@@ -4682,15 +4760,18 @@
         <v>0.003620715106521537</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.15777505400430325</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.05715836866823282</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.09075436326846287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.001157372937299112</v>
@@ -4849,15 +4930,18 @@
         <v>0.004506840871514519</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.1978123413118129</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.08535157724029538</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.06672363204291099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.001364689161344762</v>
@@ -5016,9 +5100,12 @@
         <v>0.004341786204295655</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2181835474578221</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.07397925943345213</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.023716526617312716</v>
       </c>
     </row>
@@ -5199,10 +5286,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0024254026996963964</v>
@@ -5361,15 +5451,18 @@
         <v>0.004165390755213713</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.26046377845381086</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.05202840174422132</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.033434776086236795</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0023922907933621117</v>
@@ -5528,15 +5621,18 @@
         <v>0.004344493888163877</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.2699532246743783</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.043613715772464735</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0031015050301132748</v>
@@ -5695,15 +5791,18 @@
         <v>0.0032867492562525724</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.2620124743141973</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.06190938456714448</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0035708130740187694</v>
@@ -5862,15 +5961,18 @@
         <v>0.003750587837687472</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.26359728607951227</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.05069037608432957</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0028483099133374693</v>
@@ -6029,15 +6131,18 @@
         <v>0.0030828391581712395</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.28129645906498235</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.07961939211031657</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.02566774674857797</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0027922276390216333</v>
@@ -6196,9 +6301,12 @@
         <v>0.0029203231064273316</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.27741233080205885</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.058220704854367006</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.019182819416773356</v>
       </c>
     </row>
@@ -6379,10 +6487,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-7.974163488779003E-4</v>
@@ -6541,15 +6652,18 @@
         <v>9.722569353216933E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.49068624242850056</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04040351789911861</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-7.556846631175144E-4</v>
@@ -6708,15 +6822,18 @@
         <v>0.001112023891429062</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.5031276404730883</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.040124071546107046</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.04688358589885322</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-8.571193224660297E-5</v>
@@ -6875,15 +6992,18 @@
         <v>5.111467782486054E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.48740446952543914</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.06962886786413713</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-8.565196383292811E-4</v>
@@ -7042,15 +7162,18 @@
         <v>0.0011323729107509189</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.5096410597087011</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04635880277370569</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.05826890812397334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-3.258260878261503E-4</v>
@@ -7209,15 +7332,18 @@
         <v>0.001299216150537786</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.5217207067101355</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.059790741820376664</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.06297479916139093</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-4.0730900523372655E-4</v>
@@ -7376,9 +7502,12 @@
         <v>0.0012287108272221446</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.5320543364255896</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05838133490559425</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.06109509935980828</v>
       </c>
     </row>
@@ -7559,10 +7688,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0010421367624935214</v>
@@ -7721,15 +7853,18 @@
         <v>-0.0011780921527901498</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.5233300896577198</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03383532287927806</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.017839918128332855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-9.854526608500745E-4</v>
@@ -7888,15 +8023,18 @@
         <v>-0.0017071434791911372</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.5099489645517568</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04407708235934321</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.021761491781510323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0014511030741168158</v>
@@ -8055,15 +8193,18 @@
         <v>-0.0013697627090746578</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.5053059728582503</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.0029541871968915313</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-5.517016438194369E-4</v>
@@ -8222,15 +8363,18 @@
         <v>-0.0010458388846430198</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4289248937345025</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.048788589282573375</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.028587456851916215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-2.7355516190525806E-4</v>
@@ -8389,15 +8533,18 @@
         <v>-9.314054352883546E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.45546860897901276</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.03003231897954839</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-2.3367414353715377E-4</v>
@@ -8556,9 +8703,12 @@
         <v>-8.653461954507234E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.4600847528427763</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.032550319702631204</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04210117601863317</v>
       </c>
     </row>
@@ -8739,10 +8889,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.010907269239614176</v>
@@ -8901,15 +9054,18 @@
         <v>-7.940668404998467E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.020872846436032266</v>
+      </c>
+      <c r="BC2" t="n">
         <v>-0.045986606986179304</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.010527571317064555</v>
@@ -9068,15 +9224,18 @@
         <v>-0.0022832735252985258</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.03466538529787955</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.09156575806424838</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.07973496801885638</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.01134094301875421</v>
@@ -9235,15 +9394,18 @@
         <v>-0.007033743089339092</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.04664019677015607</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.15527676338394486</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>-0.04186420409870095</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.005906339538115175</v>
@@ -9402,15 +9564,18 @@
         <v>-0.0057897015433771275</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.014882495969866683</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.12575383347337948</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.0039920212695392365</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.006334007000112509</v>
@@ -9569,15 +9734,18 @@
         <v>-0.005022786830491086</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.054326077525528094</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.013395285174676592</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-0.09431067947124383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0059356626175963816</v>
@@ -9736,9 +9904,12 @@
         <v>-0.005220769407424444</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.07618951170793231</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.02657428788766353</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.09321238172217683</v>
       </c>
     </row>
@@ -9919,10 +10090,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.004627271380843116</v>
@@ -10081,15 +10255,18 @@
         <v>0.003066345326268893</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.3959598681684884</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.02457287808686531</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.08342160813907284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.004371947868901949</v>
@@ -10248,15 +10425,18 @@
         <v>0.004022164889198955</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.3913888250581812</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03574304586201052</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.004889443498030753</v>
@@ -10415,15 +10595,18 @@
         <v>0.003742333963728169</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.39405716358980136</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.07245626925308987</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.005452400414260386</v>
@@ -10582,15 +10765,18 @@
         <v>0.0033155347772099142</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4037971670712499</v>
+      </c>
+      <c r="BC5" t="n">
         <v>-0.003256467674329591</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04879016416943216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0043090186904886614</v>
@@ -10749,15 +10935,18 @@
         <v>0.0033769705590630575</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.415030796948365</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0292272011040114</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.004378227843930291</v>
@@ -10916,9 +11105,12 @@
         <v>0.0034109568407250145</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.41863918392976873</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.02794399785131671</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -11099,10 +11291,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.003070827718381499</v>
@@ -11261,15 +11456,18 @@
         <v>-0.008872640510272785</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.22387755119473352</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.023640625644147616</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.10616019582838998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.003114490177370224</v>
@@ -11428,15 +11626,18 @@
         <v>-0.007078836152155349</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.21294432174920408</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03331522595726108</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.08250122151174377</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0024126629467804777</v>
@@ -11595,15 +11796,18 @@
         <v>-0.005852334953025986</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.25294987386180745</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08611454987339472</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.10074990310014353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.00435494322978322</v>
@@ -11762,15 +11966,18 @@
         <v>-0.006260722740264196</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.2191553911762083</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.061947436765617446</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.09803374027136424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.005636639732529662</v>
@@ -11929,15 +12136,18 @@
         <v>-0.006787647145788448</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.25119488959666336</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.09194371994411334</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.09893994785490534</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.005884944362014947</v>
@@ -12096,9 +12306,12 @@
         <v>-0.006821325177113873</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2754376265000933</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.08634390073821774</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.07325046173959304</v>
       </c>
     </row>
@@ -12279,10 +12492,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0031177157841284146</v>
@@ -12441,15 +12657,18 @@
         <v>-0.003533431233909024</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.4628056547343192</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.006564320026111068</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0028892747955687175</v>
@@ -12608,15 +12827,18 @@
         <v>-0.004172847341982475</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.46799748058643953</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.033240029651884676</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.03343477608623768</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.004205276910893182</v>
@@ -12775,15 +12997,18 @@
         <v>-0.0033584071819864145</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.46243328585810206</v>
+      </c>
+      <c r="BC4" t="n">
         <v>-0.011606318166982613</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.027615167032972288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.003635923177097004</v>
@@ -12942,15 +13167,18 @@
         <v>-0.005620004070258747</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4965576959840411</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.022827788346894348</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.004177166737781333</v>
@@ -13109,15 +13337,18 @@
         <v>-0.005273503764021357</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.5040384919698366</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0015232151524678522</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03729578474369788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.003982726432594329</v>
@@ -13276,9 +13507,12 @@
         <v>-0.005075112675640522</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.5051999388602796</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.011460833338821445</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03246719013750177</v>
       </c>
     </row>
@@ -13459,10 +13693,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.004805329968893774</v>
@@ -13621,15 +13858,18 @@
         <v>0.004585102944499958</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.2776489714693181</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03499780467641127</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06859279146561192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.00449604263903985</v>
@@ -13788,15 +14028,18 @@
         <v>0.005358365874928682</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.2773958703111822</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04290786677427741</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.004984714931745974</v>
@@ -13955,15 +14198,18 @@
         <v>0.007015542297004486</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.24433956888617947</v>
+      </c>
+      <c r="BC4" t="n">
         <v>-0.007643100122571349</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05448818528406907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.007013220153655901</v>
@@ -14122,15 +14368,18 @@
         <v>0.007648928800108175</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.2886158102698938</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.05709411283701983</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.005357195186299445</v>
@@ -14289,15 +14538,18 @@
         <v>0.007549093369036524</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.27780704263835887</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06649078182395499</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.038258712117089644</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.005152931394441405</v>
@@ -14456,9 +14708,12 @@
         <v>0.007652208828342445</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2772943956991092</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.010326633602657797</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
@@ -14639,10 +14894,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0019938989015496874</v>
@@ -14801,15 +15059,18 @@
         <v>-0.0021104451933282153</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.10031972581593984</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.05683758735283237</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.04395188752918244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.002194073829379807</v>
@@ -14968,15 +15229,18 @@
         <v>-0.004030234489473226</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.06587747125186039</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.02337028349123583</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0012281950282389087</v>
@@ -15135,15 +15399,18 @@
         <v>-0.0022387849143269403</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.20234939978643451</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.004787282872373039</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.001862116497786512</v>
@@ -15302,15 +15569,18 @@
         <v>-0.0032790903647490766</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.12716439062230056</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.018766737000354815</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.00895974137147082</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0019294743211349615</v>
@@ -15469,15 +15739,18 @@
         <v>-0.002508043620551624</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.10030732808065723</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.005460091107396849</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.04210117601863583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0019824621010167786</v>
@@ -15636,9 +15909,12 @@
         <v>-0.0024328306869407634</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.09055796377062464</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.031714466092164606</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
@@ -15819,10 +16095,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-6.088573590266213E-4</v>
@@ -15981,15 +16260,18 @@
         <v>-0.003484320067653416</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.17422941160693695</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03407526066482826</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.13102826240640297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-7.087794079017996E-4</v>
@@ -16148,15 +16430,18 @@
         <v>-0.00219002877957611</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.12528849676152642</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04482212598466298</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.08892620919440208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>6.142316254172467E-5</v>
@@ -16315,15 +16600,18 @@
         <v>-0.0019057451069088994</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.16750965177835353</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08976441458161027</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0015466790425270206</v>
@@ -16482,15 +16770,18 @@
         <v>-0.0014528363035920587</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.14364463165334707</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.03848000264225607</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-9.054534141660937E-4</v>
@@ -16649,15 +16940,18 @@
         <v>-0.0014514189669586636</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.16034189180105785</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.05644813894074445</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0010090463553842739</v>
@@ -16816,9 +17110,12 @@
         <v>-0.0015140808732282305</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.16861048660678746</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05366973096881571</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
@@ -16999,10 +17296,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0014028154594997269</v>
@@ -17161,15 +17461,18 @@
         <v>3.529849472559168E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.06089547241325266</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.025421581927136602</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.05354076692802945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0013739507242422752</v>
@@ -17328,15 +17631,18 @@
         <v>4.6870409603611175E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.1050474089956761</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.027594004702435865</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0014513438690258514</v>
@@ -17495,15 +17801,18 @@
         <v>8.724618422270954E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.06471371316253682</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.04539067914833615</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.038258712117088756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0014178775437865131</v>
@@ -17662,15 +17971,18 @@
         <v>9.453230373051512E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.07724210648448304</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.027818863617688327</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03633192924739248</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0011219989961864384</v>
@@ -17829,15 +18141,18 @@
         <v>0.00112840774469814</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.06937138503935847</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.029953148242519906</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03440142671733071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0011146887590028332</v>
@@ -17996,9 +18311,12 @@
         <v>0.0011371625430608196</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.06010898248597263</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.032850082127833816</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.06391332574365371</v>
       </c>
     </row>
@@ -18179,10 +18497,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-6.439926158381482E-4</v>
@@ -18341,15 +18662,18 @@
         <v>6.416429326588163E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.02313088253981488</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.07996891617429878</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.07788653865707484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0012132272272156917</v>
@@ -18508,15 +18832,18 @@
         <v>0.0018131904067806865</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.021658174985889955</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.06303217137392864</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>-0.017146158834973946</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-7.073910825399975E-4</v>
@@ -18675,15 +19002,18 @@
         <v>-5.364963651266739E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.028781559587772065</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.018174145669923154</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03246719013750443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>2.6399390192259056E-4</v>
@@ -18842,15 +19172,18 @@
         <v>-0.0013617914740705693</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.013038239351184866</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.008792041210245148</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.009950330853165212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0018590449144921127</v>
@@ -19009,15 +19342,18 @@
         <v>-0.0034768350959430423</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.02086239743235163</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.05059850624577192</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0018433181816294745</v>
@@ -19176,9 +19512,12 @@
         <v>-0.0033861649305705083</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.013476414913312418</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.024430021196110492</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.05638033343610971</v>
       </c>
     </row>
@@ -19359,10 +19698,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.003611234020387228</v>
@@ -19521,15 +19863,18 @@
         <v>0.0026855485727955656</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.38462888861208744</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.025652458539857738</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.04499736593073589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0037679095193968205</v>
@@ -19688,15 +20033,18 @@
         <v>0.001859854173954721</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.34910530128558726</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.026314170409219816</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.10165365372649937</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0027416981872237997</v>
@@ -19855,15 +20203,18 @@
         <v>0.004761920471267672</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.21220493222838788</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.019681588713151302</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.08525984395082276</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0014522719033098746</v>
@@ -20022,15 +20373,18 @@
         <v>0.003104243764456745</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.1835888404886563</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.020543939931766245</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.08434114843374996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.00172209001175416</v>
@@ -20189,15 +20543,18 @@
         <v>0.004373411187466226</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.18551730037991332</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.03850120613792341</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.08434114843375173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0018185512043023809</v>
@@ -20356,9 +20713,12 @@
         <v>0.0045235047390700285</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.17355761956462679</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.03465487105021718</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.07973496801885283</v>
       </c>
     </row>
@@ -20539,10 +20899,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.001810620865349439</v>
@@ -20701,15 +21064,18 @@
         <v>0.004815608652195205</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.033464675091329776</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04848410581434638</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.059211859631845165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0019908483054281207</v>
@@ -20868,15 +21234,18 @@
         <v>0.0055945740371328104</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.07021343667832602</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.07287668396959113</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.04497336564272647</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-7.971188098934665E-4</v>
@@ -21035,15 +21404,18 @@
         <v>0.004351111469724384</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.003260324393222991</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08615418026975959</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.0573250666192715</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0015050351455640858</v>
@@ -21202,15 +21574,18 @@
         <v>0.004786705833334012</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.019472761045056575</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.059569859116565115</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.05259245011916924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0014255273963114951</v>
@@ -21369,15 +21744,18 @@
         <v>0.004242309797341753</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.042267822115646614</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.07928918482884163</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.055434706888101815</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0016468573098015876</v>
@@ -21536,9 +21914,12 @@
         <v>0.004119358978129218</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.04868255106328434</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.07053369635197822</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.05638033343611415</v>
       </c>
     </row>
@@ -21719,10 +22100,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.004622890010367919</v>
@@ -21881,15 +22265,18 @@
         <v>-0.0011475919021759161</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.02009203184118169</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.056355155874684607</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06672363204290743</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.004309469289414624</v>
@@ -22048,15 +22435,18 @@
         <v>-8.610901285568618E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.02502146861233845</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.052788772965129745</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.05826890812397867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.004195263365673864</v>
@@ -22215,15 +22605,18 @@
         <v>7.095074263711808E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.02634221017786076</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.001485332504017653</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.017839918128327525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.004289248903911251</v>
@@ -22382,15 +22775,18 @@
         <v>-6.595378313871089E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.0027558030193509664</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.0026082890891194407</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03052920503482337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0031618125630966856</v>
@@ -22549,15 +22945,18 @@
         <v>-0.0014634906281823042</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.017168939687273177</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.044094295513545774</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.02469261259037392</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.003167315519517837</v>
@@ -22716,9 +23115,12 @@
         <v>-0.001401122713497194</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.02928531578124649</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.026797731504266606</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.02371652661731538</v>
       </c>
     </row>
@@ -22899,10 +23301,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.00481296169236564</v>
@@ -23061,15 +23466,18 @@
         <v>0.0029975181612358908</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.22703900205921523</v>
+      </c>
+      <c r="BC2" t="n">
         <v>-0.045496008561440704</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.0788111804242897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.004925202393335379</v>
@@ -23228,15 +23636,18 @@
         <v>0.003957621531804521</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.23416361053456236</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.012168974453800302</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.07696104113612456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.005301165714867462</v>
@@ -23395,15 +23806,18 @@
         <v>0.00594592548132298</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.23260836773466942</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.0036184926793067784</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.08342160813907906</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0029003602291351417</v>
@@ -23562,15 +23976,18 @@
         <v>0.004377486186751516</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.23660873604862132</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.01243555528287782</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.006975613736424968</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.004615230585470723</v>
@@ -23729,15 +24146,18 @@
         <v>0.0072497291060899275</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.28048262809422675</v>
+      </c>
+      <c r="BC6" t="n">
         <v>3.005820240584156E-4</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.004381325372026094</v>
@@ -23896,9 +24316,12 @@
         <v>0.007005473523510358</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2832787171197918</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05782600724876952</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.016129381929887998</v>
       </c>
     </row>
@@ -24079,10 +24502,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0075908114164221704</v>
@@ -24241,15 +24667,18 @@
         <v>-0.009257683592368516</v>
       </c>
       <c r="BB2" t="n">
+        <v>-6.0266529265495805E-5</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.01996400848542291</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.9702190738997145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.006717323555173989</v>
@@ -24408,15 +24837,18 @@
         <v>-0.02130979541668337</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.30654465025067745</v>
+      </c>
+      <c r="BC3" t="n">
         <v>-0.10167891684340435</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.7153977894947663</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.011540528226461292</v>
@@ -24575,15 +25007,18 @@
         <v>-0.0050632982840696315</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.29920575329633503</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.21470318498322688</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>-0.14618251017808248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.005895273742718768</v>
@@ -24742,15 +25177,18 @@
         <v>-0.00943642544221421</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.2661111242348697</v>
+      </c>
+      <c r="BC5" t="n">
         <v>-0.11367722349171958</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>-0.27443684570175986</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.003939870222947249</v>
@@ -24909,15 +25347,18 @@
         <v>-0.008036938621481504</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.17767330679512727</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.19708868135039737</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-0.10758521067993776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.004624137426961892</v>
@@ -25076,9 +25517,12 @@
         <v>-0.008305862847461218</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.17363696167326537</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.006213914887751689</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.030459207484708095</v>
       </c>
     </row>
@@ -25259,10 +25703,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0026519991496551866</v>
@@ -25421,15 +25868,18 @@
         <v>-0.003753300348293223</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.393825389979235</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.06381621356819236</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.03825871211709142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0029741283233330703</v>
@@ -25588,15 +26038,18 @@
         <v>-0.004369569774592463</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.36519843101910543</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.08795897945858572</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.002350420500759152</v>
@@ -25755,15 +26208,18 @@
         <v>-0.005557566311720538</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.3541356339439756</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08569266593399338</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.06578774053800274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0010116035646606453</v>
@@ -25922,15 +26378,18 @@
         <v>-0.004782222757218144</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.3658579772726457</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.06069844113844419</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04688358589885144</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-4.622518175644866E-4</v>
@@ -26089,15 +26548,18 @@
         <v>-0.0041321855739285375</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.35979687334307386</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06389283701864512</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-7.824907390029121E-4</v>
@@ -26256,9 +26718,12 @@
         <v>-0.004313103889597206</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.3391715933246592</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.0807983500297108</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.007024614936964824</v>
       </c>
     </row>
@@ -26439,10 +26904,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.001427073882964498</v>
@@ -26601,15 +27069,18 @@
         <v>-0.0027751925251972985</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.08791223240303148</v>
+      </c>
+      <c r="BC2" t="n">
         <v>-2.6382282828340403E-4</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.014888612493750841</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0014097304695200163</v>
@@ -26768,15 +27239,18 @@
         <v>-0.003336542289662806</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.07141255960845361</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.017596298972516793</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.029558802241545834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-8.882701958343222E-4</v>
@@ -26935,15 +27409,18 @@
         <v>-0.0032049071469693134</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.05721701538849788</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.05149912926424098</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-8.216334469407044E-4</v>
@@ -27102,15 +27579,18 @@
         <v>-0.0027808658696469755</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.03964250696449523</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.01475042836244632</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03246719013749999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-7.971620021153651E-4</v>
@@ -27269,15 +27749,18 @@
         <v>-0.0024171486799744912</v>
       </c>
       <c r="BB6" t="n">
+        <v>-4.079727151395929E-4</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.024518234350973524</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03052920503482426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-9.006141127975513E-4</v>
@@ -27436,9 +27919,12 @@
         <v>-0.002438256908528062</v>
       </c>
       <c r="BB7" t="n">
+        <v>-5.573246342867044E-4</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.032930184133520654</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.041141943331173714</v>
       </c>
     </row>
@@ -27619,10 +28105,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0031942607691949026</v>
@@ -27781,15 +28270,18 @@
         <v>-0.001965872012310977</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.24255784318010754</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.02300065565371573</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.04783732941415941</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0030009728491298695</v>
@@ -27948,15 +28440,18 @@
         <v>-0.0018881457898561984</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.24868480655859726</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04292269718360108</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.018821754240588184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.003645358288091715</v>
@@ -28115,15 +28610,18 @@
         <v>-0.001730027540077052</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.24472797536407664</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.04029168809624647</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05069311431551782</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0032257539311063505</v>
@@ -28282,15 +28780,18 @@
         <v>-0.0026240183189368896</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.23857354218809979</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.015555977858524611</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.055434706888100926</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.00238318396637402</v>
@@ -28449,15 +28950,18 @@
         <v>-0.0024333449485973947</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.2558588222788145</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.044757281255112434</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0020637854361051974</v>
@@ -28616,9 +29120,12 @@
         <v>-0.0024932239399059943</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2607762349690933</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05552107663770727</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.024692612590371255</v>
       </c>
     </row>
@@ -28799,10 +29306,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-6.185496643230675E-4</v>
@@ -28961,15 +29471,18 @@
         <v>-0.006425000193724845</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.05714838721510751</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.027317699524228446</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.03149866705937132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-4.889159046366924E-4</v>
@@ -29128,15 +29641,18 @@
         <v>-0.006354287772571061</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.04875853378119488</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.042345618020041</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>-0.008032171697265333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-8.634104939426058E-4</v>
@@ -29295,15 +29811,18 @@
         <v>-0.006977600759510792</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.03735419479272384</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.012116484465141186</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.02273948696949013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0015072200680883287</v>
@@ -29462,15 +29981,18 @@
         <v>-0.006259013121578571</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.007328428028442913</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04068110282374313</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.06765864847381398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>8.34136252161379E-4</v>
@@ -29629,15 +30151,18 @@
         <v>-0.004929802465359667</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.07114897310099</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.04750598288676537</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>8.88039303982461E-4</v>
@@ -29796,9 +30321,12 @@
         <v>-0.004790437113607573</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.0669680868699194</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.03106320727502991</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
@@ -29979,10 +30507,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.004715407620027212</v>
@@ -30141,15 +30672,18 @@
         <v>-0.0034049413311237815</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.07315719402069387</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.032442713124093595</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.04592893188840019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.004892928157008705</v>
@@ -30308,15 +30842,18 @@
         <v>-0.003809422606713225</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.06592298201517588</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.01225791466052581</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.056380333436107044</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.004870961626107478</v>
@@ -30475,15 +31012,18 @@
         <v>-0.0020682948090527823</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.05954133901100178</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.044431597441593244</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05921185963184605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.004620817499695105</v>
@@ -30642,15 +31182,18 @@
         <v>-0.0022129778944726584</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.05359756612534383</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.02900181409095194</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.05448818528406996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.005120251155781031</v>
@@ -30809,15 +31352,18 @@
         <v>-0.0016894822326958992</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.02033800441254252</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.03598701949612845</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.013902905168992064</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.004934870125092807</v>
@@ -30976,9 +31522,12 @@
         <v>-0.0018143584233773808</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.022492343715776686</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05534844170380596</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.019802627296178876</v>
       </c>
     </row>
@@ -31159,10 +31708,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0012928417632572214</v>
@@ -31321,15 +31873,18 @@
         <v>0.003203030728302834</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.1914672706169337</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.05728802404835544</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.040181789632828924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.001373235876545816</v>
@@ -31488,15 +32043,18 @@
         <v>0.0030140263288959118</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.1867702052147867</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.06504480372701177</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-8.85172166143388E-4</v>
@@ -31655,15 +32213,18 @@
         <v>0.0025305125770417785</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.19983012056049032</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.047598184149940825</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03343477608623946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0013969049579327186</v>
@@ -31822,15 +32383,18 @@
         <v>0.0021226739448407805</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.2086525119714021</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.03135848915044072</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.03633192924738893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0015441860369503487</v>
@@ -31989,15 +32553,18 @@
         <v>0.0015129426786677745</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.23222695865644294</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0571203773460605</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.034401426717331596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0015544649592280934</v>
@@ -32156,9 +32723,12 @@
         <v>0.0015144265357891586</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.24045284176576764</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.04530943192777407</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03729578474369699</v>
       </c>
     </row>
@@ -32339,10 +32909,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-6.351174884164773E-4</v>
@@ -32501,15 +33074,18 @@
         <v>-0.004100075891474715</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.03575726391902423</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.06482120552491112</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.05069311431551693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-4.833904803140047E-4</v>
@@ -32668,15 +33244,18 @@
         <v>-0.003656492204340764</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.031718355802848874</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04839975714634989</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.029558802241549387</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-3.0629270382458585E-4</v>
@@ -32835,15 +33414,18 @@
         <v>-0.0033655041197265504</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.009733709081234165</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.03206225751618259</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.04401688541676929</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.002455873692141732</v>
@@ -33002,15 +33584,18 @@
         <v>-0.003455801785129892</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.0016273839185225736</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.045780917239329505</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.02664193094642009</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-9.070690070645765E-4</v>
@@ -33169,15 +33754,18 @@
         <v>-0.0032615800982232815</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.04789786837489052</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.05542032857758694</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.04401688541677462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-9.455073758753658E-4</v>
@@ -33336,9 +33924,12 @@
         <v>-0.003193918607299521</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.039814458613061765</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.04688206926929342</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.011928570865274324</v>
       </c>
     </row>
@@ -33519,10 +34110,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0038119398126562967</v>
@@ -33681,15 +34275,18 @@
         <v>-0.0021893806119933903</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.4029204026807929</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03490199615248975</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06859279146560748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.00352001351028395</v>
@@ -33848,15 +34445,18 @@
         <v>-0.002027730867620492</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.39351004025763914</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04792973952361353</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.06952606264861139</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.003506203173726988</v>
@@ -34015,15 +34615,18 @@
         <v>-0.002043173940393266</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.38743719847403546</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.0819155013106827</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.06859279146561104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.00478900788904497</v>
@@ -34182,15 +34785,18 @@
         <v>-0.0011269037277304448</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.42105720331973406</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.06608095344470002</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.07138999608667174</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0025165879074852144</v>
@@ -34349,15 +34955,18 @@
         <v>-3.1302211686919275E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.366885769632576</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.08439575834815005</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.06391332574365638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.002449207433909875</v>
@@ -34516,9 +35125,12 @@
         <v>-2.6920374134302406E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.3680196881200004</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.06567685959585597</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
@@ -34699,10 +35311,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0011724769945114107</v>
@@ -34861,15 +35476,18 @@
         <v>-2.511098701982459E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.31634520008036093</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04586408185121457</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0011861083611691106</v>
@@ -35028,15 +35646,18 @@
         <v>-1.5328697960904764E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.323909688038024</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.055522399333728205</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.04974209189481282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0010942839046901892</v>
@@ -35195,15 +35816,18 @@
         <v>-2.556841786280788E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.31957236981991055</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.04313688403482868</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0012937138641575877</v>
@@ -35362,15 +35986,18 @@
         <v>2.549662000410263E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.3163927387999602</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.06624897518846429</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.062035390919452205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0016629785057646765</v>
@@ -35529,15 +36156,18 @@
         <v>5.16965410645454E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.34204729471793993</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.07080546785598821</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0015691495449673652</v>
@@ -35696,9 +36326,12 @@
         <v>4.5543834790126076E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.3528077715133874</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.060393430223791476</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
@@ -35879,10 +36512,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0060310340987659965</v>
@@ -36041,15 +36677,18 @@
         <v>-0.005708032182280198</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.4400113937316522</v>
+      </c>
+      <c r="BC2" t="n">
         <v>-0.02609162995447495</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.022739486969489242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.005742997734397183</v>
@@ -36208,15 +36847,18 @@
         <v>-0.005193229908750888</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.42033202901866995</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.007999973408857504</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.11154137473290593</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.005931290824513531</v>
@@ -36375,15 +37017,18 @@
         <v>-0.004258374392471697</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.42354318183149464</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.08421707886216515</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0064437144612678994</v>
@@ -36542,15 +37187,18 @@
         <v>-6.514061633968622E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.49851257217851286</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.07672706071926796</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.07232066157962702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.002323943836626836</v>
@@ -36709,15 +37357,18 @@
         <v>0.001811161378380702</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.23287170678615976</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06969121476564782</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.002426181293839174</v>
@@ -36876,9 +37527,12 @@
         <v>0.0018434126720264336</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2436177552117086</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.034390690936096285</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04879016416943038</v>
       </c>
     </row>
@@ -37059,10 +37713,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0014712776885019727</v>
@@ -37221,15 +37878,18 @@
         <v>-0.009443489451445892</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.13960102522334394</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.011715588267995437</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0018399354400608675</v>
@@ -37388,15 +38048,18 @@
         <v>-0.009229668924504716</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.13730717626818345</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04639017685058538</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0013463587436356433</v>
@@ -37555,15 +38218,18 @@
         <v>-0.008876891060102593</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.1309051076790193</v>
+      </c>
+      <c r="BC4" t="n">
         <v>-1.6435247479102202E-4</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05259245011917102</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-1.7466572849885874E-4</v>
@@ -37722,15 +38388,18 @@
         <v>-0.007849037283641083</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.08368285536657227</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.07767387401014042</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.061095099359810945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.002269992738549654</v>
@@ -37889,15 +38558,18 @@
         <v>-0.006170616571842435</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.09325199850233501</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.058728422457261384</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.0266419309464192</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.002164231677547434</v>
@@ -38056,9 +38728,12 @@
         <v>-0.006211674991762645</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.0801623221891965</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.0400125194729436</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.016129381929883557</v>
       </c>
     </row>
@@ -38239,10 +38914,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.001311224530998711</v>
@@ -38401,15 +39079,18 @@
         <v>4.118330641764525E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.07927417572132567</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.014433201381062173</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.029558802241544946</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0011735893581869506</v>
@@ -38568,15 +39249,18 @@
         <v>2.3308612858271704E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.07759142343655756</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.028242395271970047</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0011835126835866776</v>
@@ -38735,15 +39419,18 @@
         <v>5.488448211580419E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.08783845449838124</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.0335061917138086</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.0695260626486105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0015051436299401918</v>
@@ -38902,15 +39589,18 @@
         <v>0.0011396230807581408</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.058785316786802655</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.03460197438309505</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.06203539091945309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>7.08335997537263E-4</v>
@@ -39069,15 +39759,18 @@
         <v>-2.406338370760559E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.05232061457635384</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.07095340474117873</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>8.945149408778145E-4</v>
@@ -39236,9 +39929,12 @@
         <v>-2.5617346465546433E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.08474909556654475</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.025541611976378983</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
@@ -39419,10 +40115,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>1.704216374300337E-4</v>
@@ -39581,15 +40280,18 @@
         <v>0.0033594739504696097</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.40993605816646383</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.041947952127322476</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.07510747248680527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-1.6112721967435472E-4</v>
@@ -39748,15 +40450,18 @@
         <v>0.002549551586061999</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.40896004547119946</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.059108268149498745</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.08434114843375085</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-4.390219334912682E-5</v>
@@ -39915,15 +40620,18 @@
         <v>0.0024733813839661733</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.4322719447690465</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.07251197418991512</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.004367426861132907</v>
@@ -40082,15 +40790,18 @@
         <v>0.0042378856771386085</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.38198774293242344</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.057760851001088465</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.07325046173959393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0038183778186107256</v>
@@ -40249,15 +40960,18 @@
         <v>0.004623385629307319</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.4209055157995558</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06521489555975599</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.08525984395082364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0034623240293902516</v>
@@ -40416,9 +41130,12 @@
         <v>0.004312400767194109</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.42626774026468073</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.11600546145479562</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
@@ -40599,10 +41316,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0021822094748793533</v>
@@ -40761,15 +41481,18 @@
         <v>-0.005161617167271849</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.4222361612350607</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.021243551732829526</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0025798303572117584</v>
@@ -40928,15 +41651,18 @@
         <v>-0.005369072476601756</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.40352652804987255</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03170664714420406</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.030529205034822482</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0017554196687070594</v>
@@ -41095,15 +41821,18 @@
         <v>-0.0041850421392286355</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.3936783339713612</v>
+      </c>
+      <c r="BC4" t="n">
         <v>-0.003400112517720981</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.04688358589884967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>3.636818301386063E-4</v>
@@ -41262,15 +41991,18 @@
         <v>-0.004568726222784266</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4128306243407214</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.059618889143533776</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.06297479916139004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.002198126289053427</v>
@@ -41429,15 +42161,18 @@
         <v>-0.0030554869727777096</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.38853680604398366</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.04393154490865585</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0021054821039025685</v>
@@ -41596,9 +42331,12 @@
         <v>-0.0029670025253665387</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.39474653641899027</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.039203855578599414</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04018178963282715</v>
       </c>
     </row>
@@ -41779,10 +42517,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0017217006617228571</v>
@@ -41941,15 +42682,18 @@
         <v>0.0011814543024552514</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.16651703016990393</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.040106890060697516</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.017839918128331966</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0017020142936585551</v>
@@ -42108,15 +42852,18 @@
         <v>0.0012578156492130625</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.1601189902827025</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03908791704823248</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.0430594894604468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0016136878969798848</v>
@@ -42275,15 +43022,18 @@
         <v>7.808037360454792E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.15137945849680645</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.05478568968999912</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03440142671733337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0014402866001885482</v>
@@ -42442,15 +43192,18 @@
         <v>0.0013208603714960961</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.14161242325921175</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04145865924610322</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.040181789632832476</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-9.454446857310786E-4</v>
@@ -42609,15 +43362,18 @@
         <v>0.0015743834751788361</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.10439396157199976</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.043643130385544085</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.06297479916138649</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-9.097941013100524E-4</v>
@@ -42776,9 +43532,12 @@
         <v>0.001589301564437178</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.08830606155620657</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.04052950512179846</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.06485097231961667</v>
       </c>
     </row>
@@ -42959,10 +43718,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-3.397539174762904E-4</v>
@@ -43121,15 +43883,18 @@
         <v>0.002003803848313043</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.08104561813935995</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04068183740704312</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.07603468627599774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-6.410984842923663E-4</v>
@@ -43288,15 +44053,18 @@
         <v>0.003694571180012589</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.02419731466065156</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.0742453749334855</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.06391332574365283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>2.208897367922246E-4</v>
@@ -43455,15 +44223,18 @@
         <v>0.0034565023365894605</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.03444649980247849</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.07134838554109316</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.058268908123975116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.001166944562241703</v>
@@ -43622,15 +44393,18 @@
         <v>0.0017888351741267856</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.08249963242321168</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.032821080971536847</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.0324671901374991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.002067075216909011</v>
@@ -43789,15 +44563,18 @@
         <v>0.0010051191378115149</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.034118913648668814</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.039158176030686484</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.034401426717336925</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.002258910671554618</v>
@@ -43956,9 +44733,12 @@
         <v>8.900391045768096E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.02921013001563355</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05417671208618433</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.0440168854167684</v>
       </c>
     </row>
@@ -44139,10 +44919,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.005064170877687493</v>
@@ -44301,15 +45084,18 @@
         <v>-0.003517630467745595</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.17464583339588824</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03300160094446297</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.04688358589884878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.005171772378164719</v>
@@ -44468,15 +45254,18 @@
         <v>-0.0022700386042844877</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.1646085308590448</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.035293151922191124</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.14149956227370009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.005444298015906918</v>
@@ -44635,15 +45424,18 @@
         <v>5.234538754539805E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.08733175830907292</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.09177542349424969</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.1881379421153948</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0013303007469005492</v>
@@ -44802,15 +45594,18 @@
         <v>0.001009745686955275</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.12255988252555183</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.08429330377946578</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.0449733656427318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0024997150981122544</v>
@@ -44969,15 +45764,18 @@
         <v>9.714656274929927E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.10341318355956819</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0769358881664853</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-0.22941316432780567</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.00200339810984649</v>
@@ -45136,9 +45934,12 @@
         <v>1.8969974268334678E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.26154559362703655</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.04171754904512119</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.06109509935981183</v>
       </c>
     </row>
@@ -45319,10 +46120,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.005814363881307301</v>
@@ -45481,15 +46285,18 @@
         <v>0.006910277891040351</v>
       </c>
       <c r="BB2" t="n">
+        <v>-0.09539932004225093</v>
+      </c>
+      <c r="BC2" t="n">
         <v>-0.003935911422632799</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.1131686981056399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.005577259727062606</v>
@@ -45648,15 +46455,18 @@
         <v>0.0053082736065331905</v>
       </c>
       <c r="BB3" t="n">
+        <v>-0.07698611827575808</v>
+      </c>
+      <c r="BC3" t="n">
         <v>-0.01967558286583389</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.0119285708652761</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.006416747195090386</v>
@@ -45815,15 +46625,18 @@
         <v>0.006688990944486233</v>
       </c>
       <c r="BB4" t="n">
+        <v>-0.08662361713623867</v>
+      </c>
+      <c r="BC4" t="n">
         <v>-0.015444177129182425</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.0276151670329714</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.0064532319091560476</v>
@@ -45982,15 +46795,18 @@
         <v>0.005396726328966635</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.07665869393570612</v>
+      </c>
+      <c r="BC5" t="n">
         <v>-0.010417560139099662</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.006464047792499063</v>
@@ -46149,15 +46965,18 @@
         <v>0.007737106805548928</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.07948474882648093</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.05017026581963125</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.035367143837292225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.006381573265161588</v>
@@ -46316,9 +47135,12 @@
         <v>0.007886584396997333</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.07467853907003441</v>
+      </c>
+      <c r="BC7" t="n">
         <v>-0.005265147547906359</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03149866705937043</v>
       </c>
     </row>
@@ -46499,10 +47321,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-9.96475724659863E-4</v>
@@ -46661,15 +47486,18 @@
         <v>-4.459060630401957E-5</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.20067863032071998</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.027882545687934177</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.03246719013750088</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-9.733582298727348E-4</v>
@@ -46828,15 +47656,18 @@
         <v>-5.974408122490265E-6</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.20398915982513188</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.02739721771889427</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.021761491781512987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-8.170426290383496E-4</v>
@@ -46995,15 +47826,18 @@
         <v>2.6786726214628556E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.2248348612193657</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.02091392682662402</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.024692612590372143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-9.619434317486783E-4</v>
@@ -47162,15 +47996,18 @@
         <v>2.6237598720518936E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.2295829034704312</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.03195884936511981</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0010226576572459679</v>
@@ -47329,15 +48166,18 @@
         <v>-2.790783834301479E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.20363029872603944</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.03998070627473123</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.012916225266547343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0010473422839312276</v>
@@ -47496,9 +48336,12 @@
         <v>-3.172307869676018E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2017660880538048</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.030427831441213915</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.002995508979797279</v>
       </c>
     </row>
@@ -47679,10 +48522,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0017850086307455056</v>
@@ -47841,15 +48687,18 @@
         <v>-3.1369245980945095E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.06084309403455379</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.035222745929194665</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.020202707317519497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0014779018484697504</v>
@@ -48008,15 +48857,18 @@
         <v>-0.0018272748682717837</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.06155301037495642</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.034931618615483814</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.004987541511038529</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0023683602760434406</v>
@@ -48175,15 +49027,18 @@
         <v>-0.002251015782848428</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.06805878817101751</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.005112349597710673</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.043059489460447686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-8.99601263047058E-4</v>
@@ -48342,15 +49197,18 @@
         <v>-1.3246519510636809E-5</v>
       </c>
       <c r="BB5" t="n">
+        <v>-0.03093347554216419</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.07334114058622704</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.026641930946420977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>8.910154215479429E-4</v>
@@ -48509,15 +49367,18 @@
         <v>0.0013501131009259417</v>
       </c>
       <c r="BB6" t="n">
+        <v>-0.057906684349298354</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.03000900064350934</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.04783732941416119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0010245651872439242</v>
@@ -48676,9 +49537,12 @@
         <v>0.001433411744126348</v>
       </c>
       <c r="BB7" t="n">
+        <v>-0.05603318537042923</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.03180150550073077</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
@@ -48859,10 +49723,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>8.290950540175451E-4</v>
@@ -49021,15 +49888,18 @@
         <v>-0.002833584404951298</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.4093597505008191</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.05188320685302668</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.07603468627599685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>8.536043677823215E-4</v>
@@ -49188,15 +50058,18 @@
         <v>-0.0024352610311155144</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.40962168356697626</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.05625850534375279</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>9.35562357047999E-4</v>
@@ -49355,15 +50228,18 @@
         <v>-0.0025904026107903557</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.40450388801162285</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.05457748799075883</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.07045846364856079</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>4.0882992667275214E-4</v>
@@ -49522,15 +50398,18 @@
         <v>-0.0021175712492920314</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.44049799356210906</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.06290289088962228</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.0676586484738193</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0011689245848989609</v>
@@ -49689,15 +50568,18 @@
         <v>-0.001507173120556627</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.34685020949417755</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06048840257622701</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.06765864847381131</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.001091404434995055</v>
@@ -49856,9 +50738,12 @@
         <v>-0.0015262640377227783</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.3731880885180118</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.06456359154546112</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.06765864847381486</v>
       </c>
     </row>
@@ -50039,10 +50924,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>5.145069244923189E-4</v>
@@ -50201,15 +51089,18 @@
         <v>0.001832465457760082</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.26764001193241427</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04570907747036519</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.047837329414158525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>4.0434045493272495E-4</v>
@@ -50368,15 +51259,18 @@
         <v>0.0015396539556470725</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.2725091053002011</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04380891168140278</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.046883585898850555</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>6.521344579375342E-4</v>
@@ -50535,15 +51429,18 @@
         <v>0.0016116758234191618</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.28752445323507125</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.04592852037352174</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.03922071315328246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.0010701417412853668</v>
@@ -50702,15 +51599,18 @@
         <v>0.0013681566876812604</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.29866528542822457</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.025289389358512267</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.05732506661926884</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.001694374011617982</v>
@@ -50869,15 +51769,18 @@
         <v>0.0024034886593698192</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.31867710691722084</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0580258878718712</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.05164323315183861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0015389503537988798</v>
@@ -51036,9 +51939,12 @@
         <v>0.002355161881327656</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.32276674562153096</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.055661922614972784</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04879016416943127</v>
       </c>
     </row>
@@ -51219,10 +52125,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-3.030082485936714E-4</v>
@@ -51381,15 +52290,18 @@
         <v>0.01508854678767425</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.6276267738102403</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.0774079865560392</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.058268908123976004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-7.080000846729009E-4</v>
@@ -51548,15 +52460,18 @@
         <v>0.014959277015634691</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.5857302347039279</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.11536250635866294</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0010457319333781025</v>
@@ -51715,15 +52630,18 @@
         <v>0.012519991805914336</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.44648484923759146</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.12265264285158911</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.10705907229340816</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.001247910411504808</v>
@@ -51882,15 +52800,18 @@
         <v>0.012553686897422686</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4739010716296642</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.0835360673029579</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.0401817896328307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>4.820012002932608E-6</v>
@@ -52049,15 +52970,18 @@
         <v>0.011189385434043565</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.43742939477274134</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.08219666087700056</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-0.017146158834970393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-3.708133569565431E-4</v>
@@ -52216,9 +53140,12 @@
         <v>0.010803870246595324</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.35548288585319365</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.08616981130755336</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04210117601863672</v>
       </c>
     </row>
@@ -52399,10 +53326,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.0070546870177511396</v>
@@ -52561,15 +53491,18 @@
         <v>9.001471961620831E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.18395447302863654</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.03560507262553129</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>-0.01918281941677158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.00690153768623623</v>
@@ -52728,15 +53661,18 @@
         <v>-2.0958202331288291E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.12265093225340973</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04368648584397821</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.03922071315327713</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.007002335757705701</v>
@@ -52895,15 +53831,18 @@
         <v>-5.977136583726233E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.13538521315934715</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.04382095334687972</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.006029330086458555</v>
@@ -53062,15 +54001,18 @@
         <v>-2.389147118511841E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.09005873908604412</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04747124769325484</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.027615167032973176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.005249226620196851</v>
@@ -53229,15 +54171,18 @@
         <v>3.7879848863289604E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.11198561136931962</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.026424244987225</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.010939940038332985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.005358345607368767</v>
@@ -53396,9 +54341,12 @@
         <v>3.097684171109871E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.11613056189780235</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.03759106745443071</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.011928570865272548</v>
       </c>
     </row>
@@ -53579,10 +54527,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>1.495804849462965E-4</v>
@@ -53741,15 +54692,18 @@
         <v>0.0028551875998811065</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.5551303208841418</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.054138405343734805</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.08984070399979327</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>2.630885930637568E-4</v>
@@ -53908,15 +54862,18 @@
         <v>0.002790436974649256</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.5463434418937217</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.05506994696899517</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.0372957847436961</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>5.662580960312132E-4</v>
@@ -54075,15 +55032,18 @@
         <v>0.00227784155042067</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.5037475223755401</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.06724294795910962</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.035367143837293114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>9.670956498376024E-5</v>
@@ -54242,15 +55202,18 @@
         <v>4.137689873178871E-4</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.4681194940391541</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.02819857250261189</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04974209189481371</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-7.995893759211886E-4</v>
@@ -54409,15 +55372,18 @@
         <v>5.76531839608217E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.4436722756143061</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.025515733105531832</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.05069311431551515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-8.246225502888082E-4</v>
@@ -54576,9 +55542,12 @@
         <v>6.168681822006448E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.44621482160103243</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.05353587488621529</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.045928931888399305</v>
       </c>
     </row>
@@ -54759,10 +55728,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>1.2007504415929309E-4</v>
@@ -54921,15 +55893,18 @@
         <v>-0.00600102568586369</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.2996419456044114</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.033466461255960235</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.054488185284070845</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>2.169148284939026E-4</v>
@@ -55088,15 +56063,18 @@
         <v>-0.006242806446002339</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.3059224364566724</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.02667608410663167</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.07325046173959215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>4.668833222512655E-5</v>
@@ -55255,15 +56233,18 @@
         <v>-0.004644467210819481</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.2976962405624154</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.042435654911278986</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.0497420918948146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>4.387806612871305E-4</v>
@@ -55422,15 +56403,18 @@
         <v>-0.004869835860122519</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.309083267981078</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.03322499791515433</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>3.714989796038072E-4</v>
@@ -55589,15 +56573,18 @@
         <v>-0.005318346329432191</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.3283334553575147</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.06249994906698213</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.02858745685191355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>1.9385059082992716E-4</v>
@@ -55756,9 +56743,12 @@
         <v>-0.0053976476166029555</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.323478186590031</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.0599935665245626</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03536714383729134</v>
       </c>
     </row>
@@ -55939,10 +56929,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>-0.004782894938556227</v>
@@ -56101,15 +57094,18 @@
         <v>0.008501464456338712</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.1702635925631969</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.015530050722279642</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.1432341680859066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0047555631312480515</v>
@@ -56268,15 +57264,18 @@
         <v>0.011384891649987515</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.1281363820578344</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.021606698042543136</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.13802129789737272</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>-0.0035069259743049875</v>
@@ -56435,15 +57434,18 @@
         <v>0.012535799573273934</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.16163451149669283</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.116422605810124</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.053540766928031225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>-0.007302895044900376</v>
@@ -56602,15 +57604,18 @@
         <v>0.011908269310099247</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.1183950348364301</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.02088223619352829</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.020782539182527593</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>-0.006064815432084299</v>
@@ -56769,15 +57774,18 @@
         <v>0.011883360408721589</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.13413607252401605</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.047014775558564294</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.016857117066422234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>-0.0062148314658992294</v>
@@ -56936,9 +57944,12 @@
         <v>0.011760676323291376</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.14550197147832966</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.037749984505864746</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.005982071677549605</v>
       </c>
     </row>
@@ -57119,10 +58130,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>6.102652666928525E-4</v>
@@ -57281,15 +58295,18 @@
         <v>-0.002985984386704611</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.1277408660814603</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04681537329042508</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.06391332574365194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>6.913224630267602E-4</v>
@@ -57448,15 +58465,18 @@
         <v>-0.0028343006496534813</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.11524001564646469</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03451677887949241</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.06297479916138915</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>5.817894613570572E-4</v>
@@ -57615,15 +58635,18 @@
         <v>-0.0026341975218773625</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.12747394082026087</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.05642001724220019</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05638033343610793</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>5.564974705398967E-4</v>
@@ -57782,15 +58805,18 @@
         <v>-0.0014301916668136838</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.1366709574797772</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.057108680386068277</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.042101176018634945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.001996029420098804</v>
@@ -57949,15 +58975,18 @@
         <v>-8.125305901384253E-4</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.028252556142234653</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.055323503721948955</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.03825871211709053</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0018821444164023135</v>
@@ -58116,9 +59145,12 @@
         <v>-8.50272142362169E-4</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.0343304445763396</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.055451026322473985</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.05732506661927328</v>
       </c>
     </row>
@@ -58299,10 +59331,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0013003333210419615</v>
@@ -58461,15 +59496,18 @@
         <v>0.0017935495718264275</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.11192521773106401</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.06335925162932815</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.0411419433311746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.0012227056715182452</v>
@@ -58628,15 +59666,18 @@
         <v>0.0020682410965701193</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.12136420930550129</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.059653962588273116</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.03922071315328157</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.0010133764438012285</v>
@@ -58795,15 +59836,18 @@
         <v>0.002216028533671436</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.1310550994861983</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.024513123804506966</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.04497336564273091</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>7.614804625484203E-4</v>
@@ -58962,15 +60006,18 @@
         <v>0.003371373529313655</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.15022831929014235</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.05685234191673832</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.04592893188839842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0023305910563044966</v>
@@ -59129,15 +60176,18 @@
         <v>0.0036123742295434895</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.1187546111009179</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.0688384281899075</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>-0.03978087001184427</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0022694205559043957</v>
@@ -59296,9 +60346,12 @@
         <v>0.003369267121365276</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.08902508583988977</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.0330440341550334</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>-0.0060180723255607305</v>
       </c>
     </row>
@@ -59479,10 +60532,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.0027065111588301556</v>
@@ -59641,15 +60697,18 @@
         <v>3.5874920053345795E-4</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.049947210981598045</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.04887103199115991</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.03922071315328335</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.002688599512588895</v>
@@ -59808,15 +60867,18 @@
         <v>-6.778276608855545E-4</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.08397695814948158</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.03338353155903413</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.010939940038332097</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.002172326086035661</v>
@@ -59975,15 +61037,18 @@
         <v>-4.1757544483869696E-4</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.10111374555666319</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.008554320163640057</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.007968169649175572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.003822502457599812</v>
@@ -60142,15 +61207,18 @@
         <v>-0.001599290848996029</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.18513963363347674</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.017150382755541066</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.005982071677548717</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.002844610090458006</v>
@@ -60309,15 +61377,18 @@
         <v>-0.0019507863266228975</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.21030087154995325</v>
+      </c>
+      <c r="BC6" t="n">
         <v>-0.010960094738550988</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.010939940038334761</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.002932508501582967</v>
@@ -60476,9 +61547,12 @@
         <v>-0.001927310949853981</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2330300263170737</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.02799333731055845</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.03825871211709231</v>
       </c>
     </row>
@@ -60659,10 +61733,13 @@
       <c r="BC1" t="s">
         <v>54</v>
       </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="n">
         <v>0.005620437346687855</v>
@@ -60821,15 +61898,18 @@
         <v>0.002227101820797316</v>
       </c>
       <c r="BB2" t="n">
+        <v>0.24596167347644704</v>
+      </c>
+      <c r="BC2" t="n">
         <v>0.023459187457504083</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BD2" t="n">
         <v>0.040181789632833365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="n">
         <v>0.005580954962032468</v>
@@ -60988,15 +62068,18 @@
         <v>0.002027257319005641</v>
       </c>
       <c r="BB3" t="n">
+        <v>0.25447861895774015</v>
+      </c>
+      <c r="BC3" t="n">
         <v>0.04259795232944789</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BD3" t="n">
         <v>0.044016885416772844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="n">
         <v>0.005140483710116525</v>
@@ -61155,15 +62238,18 @@
         <v>0.001982503853948094</v>
       </c>
       <c r="BB4" t="n">
+        <v>0.27462300439801146</v>
+      </c>
+      <c r="BC4" t="n">
         <v>0.02161440543180957</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BD4" t="n">
         <v>0.05259245011917191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>0.005902507348830051</v>
@@ -61322,15 +62408,18 @@
         <v>0.0019409867228599158</v>
       </c>
       <c r="BB5" t="n">
+        <v>0.28888679554116026</v>
+      </c>
+      <c r="BC5" t="n">
         <v>0.04360293651908472</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>0.05732506661926973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
         <v>0.0059147457368432365</v>
@@ -61489,15 +62578,18 @@
         <v>0.0036280512145782564</v>
       </c>
       <c r="BB6" t="n">
+        <v>0.2697010873969601</v>
+      </c>
+      <c r="BC6" t="n">
         <v>0.001941433047530309</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BD6" t="n">
         <v>0.05543470688810004</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="n">
         <v>0.0060595083204305275</v>
@@ -61656,9 +62748,12 @@
         <v>0.003706890650778875</v>
       </c>
       <c r="BB7" t="n">
+        <v>0.2732740628871074</v>
+      </c>
+      <c r="BC7" t="n">
         <v>0.0283420633441665</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>0.04401688541677373</v>
       </c>
     </row>
